--- a/biology/Neurosciences/Encéphale/Encéphale.xlsx
+++ b/biology/Neurosciences/Encéphale/Encéphale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phale</t>
+          <t>Encéphale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'encéphale, terme issu du grec ancien ἐγκέφαλος / enképhalos, « cervelle, cerveau »[1], de ἐν / en, « dans », et κεφαλή / kephalḗ, « tête ». Ce terme désigne en neurosciences le système nerveux central contenu à l'intérieur de la boîte crânienne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'encéphale, terme issu du grec ancien ἐγκέφαλος / enképhalos, « cervelle, cerveau », de ἐν / en, « dans », et κεφαλή / kephalḗ, « tête ». Ce terme désigne en neurosciences le système nerveux central contenu à l'intérieur de la boîte crânienne.
 L'encéphale contient chez l'humain, et plus généralement les chordés, une partie du système nerveux central qui contrôle l'ensemble de l'organisme. L'autre partie du système nerveux central (principalement la moelle spinale) se trouve dans le canal spinal inséré dans la colonne vertébrale.
 En neurosciences, le terme « cerveau » s'applique au prosencéphale (parfois plus strictement au télencéphale), tandis que pour les profanes, le terme « cerveau » se confond avec celui d'encéphale.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phale</t>
+          <t>Encéphale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Développement de l'encéphale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le développement de l'encéphale de l'embryon effectue trois premières divisions : le rhombencéphale qui prolonge la moelle spinale, le mésencéphale et le prosencéphale. Le rhombencéphale évolue ensuite en deux parties qui sont le myélencéphale et le métencéphale ; le prosencéphale évolue aussi en deux parties, à savoir le diencéphale et le télencéphale.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phale</t>
+          <t>Encéphale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Anatomie de l'encéphale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'encéphale humain adulte est constitué de quatre grandes régions : 
 Le cerveau, constituant la plus grande partie de l'encéphale et regroupant ;
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phale</t>
+          <t>Encéphale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Protection de l'encéphale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour sa protection, l'encéphale est entouré du crâne et des méninges crâniennes. Il est également protégé par le liquide cérébrospinal (LCS).
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phale</t>
+          <t>Encéphale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Irrigation sanguine et barrière hématoencéphalique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'encéphale humain est essentiellement irrigué de sang par les artères vertébrales et par les artères carotides internes. Le sang provenant de la tête est ensuite réacheminé au cœur par les veines jugulaires internes.
 La barrière hématoencéphalique est une protection des cellules cérébrales empêchant les agents pathogènes et les substances toxiques du sang de pénétrer dans le tissu cérébral.
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Enc%C3%A9phale</t>
+          <t>Encéphale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Fonctions des organes encéphaliques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque constituant de l'encéphale joue un rôle spécifique :
 le cervelet permet la coordination des mouvements du corps ;
